--- a/기획/테이블/캐릭터/NPC 상호작용 링크 테이블.xlsx
+++ b/기획/테이블/캐릭터/NPC 상호작용 링크 테이블.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\캐릭터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897FB82D-7EA8-4992-9CFD-139635D4D20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC0C6FBB-857D-45E5-B890-4E1F577EC4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8385" yWindow="2835" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="2295" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NPC 상호작용 링크 테이블" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>NPCId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,18 @@
   </si>
   <si>
     <t>InteractionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProgressStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProgressEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priority</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -374,7 +386,7 @@
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -384,8 +396,17 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>50</v>
       </c>
@@ -398,8 +419,17 @@
       <c r="D2">
         <v>500</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>51</v>
       </c>
@@ -412,8 +442,17 @@
       <c r="D3">
         <v>2000</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>52</v>
       </c>
@@ -425,6 +464,61 @@
       </c>
       <c r="D4">
         <v>1500</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5000</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
